--- a/xlsx/FR/global_policies_FR.xlsx
+++ b/xlsx/FR/global_policies_FR.xlsx
@@ -12,30 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Global tax on GHG&lt;br&gt; financing a global basic income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global democratic assembly&lt;br&gt;on climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global tax on millionaires &lt;br&gt; to finance low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly oppose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat oppose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indifferent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly support</t>
   </si>
 </sst>
 </file>
@@ -386,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.142471635034728</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.060858758485113</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0455125114330076</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.184673479993956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.0643436331341657</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.0640981632905084</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.351170495680051</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.320885093803504</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.248204470697886</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +431,27 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.252157294457301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.390627076079708</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.311783526422906</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0695270948339638</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.163285438497509</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.330401328155693</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/global_policies_FR.xlsx
+++ b/xlsx/FR/global_policies_FR.xlsx
@@ -389,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.142471635034728</v>
+        <v>0.14028286737169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.060858758485113</v>
+        <v>0.0546193316188223</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0455125114330076</v>
+        <v>0.0407650230350801</v>
       </c>
     </row>
     <row r="3">
@@ -403,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.184673479993956</v>
+        <v>0.185272409159036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0643436331341657</v>
+        <v>0.0573508171094814</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0640981632905084</v>
+        <v>0.0558656766620648</v>
       </c>
     </row>
     <row r="4">
@@ -417,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.351170495680051</v>
+        <v>0.334858414656297</v>
       </c>
       <c r="C4" t="n">
-        <v>0.320885093803504</v>
+        <v>0.338268897452784</v>
       </c>
       <c r="D4" t="n">
-        <v>0.248204470697886</v>
+        <v>0.241986401085406</v>
       </c>
     </row>
     <row r="5">
@@ -431,13 +431,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.252157294457301</v>
+        <v>0.272319156563125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.390627076079708</v>
+        <v>0.387102388947926</v>
       </c>
       <c r="D5" t="n">
-        <v>0.311783526422906</v>
+        <v>0.309163259532561</v>
       </c>
     </row>
     <row r="6">
@@ -445,13 +445,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0695270948339638</v>
+        <v>0.0672671522498526</v>
       </c>
       <c r="C6" t="n">
-        <v>0.163285438497509</v>
+        <v>0.162658564870987</v>
       </c>
       <c r="D6" t="n">
-        <v>0.330401328155693</v>
+        <v>0.352219639684888</v>
       </c>
     </row>
   </sheetData>
